--- a/SampleExcel.xlsx
+++ b/SampleExcel.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Employee" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet 1" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Huy - 1</t>
+  </si>
+  <si>
+    <t>Nhật - 3</t>
   </si>
 </sst>
 </file>
@@ -92,17 +95,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <protection locked="false"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -160,8 +169,40 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
   </sheetData>
+  <sheetProtection password="C8F3" sheet="true" scenarios="true" objects="true"/>
+  <dataValidations count="1">
+    <dataValidation type="decimal" operator="between" sqref="B2:M201" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Lỗi khi nhập điểm!" error="Ô nhập điểm chỉ được phép nhập từ 0 đến 10">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/SampleExcel.xlsx
+++ b/SampleExcel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="15">
   <si>
     <t>Họ và tên</t>
   </si>
@@ -47,7 +47,13 @@
     <t>Học kỳ - 10</t>
   </si>
   <si>
+    <t>9.0</t>
+  </si>
+  <si>
     <t>Huy - 1</t>
+  </si>
+  <si>
+    <t>5.0</t>
   </si>
   <si>
     <t>Nhật - 3</t>
@@ -57,9 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd-MM-yyyy"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11.0"/>
@@ -83,7 +87,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -91,14 +95,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true">
+      <protection locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <protection locked="false"/>
     </xf>
@@ -167,36 +179,75 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection password="C8F3" sheet="true" scenarios="true" objects="true"/>
   <dataValidations count="1">
     <dataValidation type="decimal" operator="between" sqref="B2:M201" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Lỗi khi nhập điểm!" error="Ô nhập điểm chỉ được phép nhập từ 0 đến 10">
       <formula1>0</formula1>

--- a/SampleExcel.xlsx
+++ b/SampleExcel.xlsx
@@ -12,58 +12,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Họ và tên</t>
   </si>
   <si>
-    <t>Miệng - 1</t>
+    <t>Miệng - 11</t>
   </si>
   <si>
-    <t>Miệng - 2</t>
+    <t>Miệng - 12</t>
   </si>
   <si>
-    <t>Miệng - 3</t>
+    <t>Miệng - 13</t>
   </si>
   <si>
-    <t>Miệng - 4</t>
+    <t>Miệng - 14</t>
   </si>
   <si>
-    <t>15 phút - 5</t>
+    <t>15 phút - 15</t>
   </si>
   <si>
-    <t>15 phút - 6</t>
+    <t>15 phút - 16</t>
   </si>
   <si>
-    <t>15 phút - 7</t>
+    <t>15 phút - 17</t>
   </si>
   <si>
-    <t>1 tiết - 8</t>
+    <t>1 tiết - 18</t>
   </si>
   <si>
-    <t>1 tiết - 9</t>
+    <t>1 tiết - 19</t>
   </si>
   <si>
-    <t>Học kỳ - 10</t>
-  </si>
-  <si>
-    <t>9.0</t>
+    <t>Học kỳ - 20</t>
   </si>
   <si>
     <t>Huy - 1</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>Nhật - 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd-MM-yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11.0"/>
@@ -87,7 +80,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -95,25 +88,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true">
-      <protection locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <protection locked="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <protection locked="false"/>
     </xf>
@@ -123,22 +105,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="12.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.2578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.2578125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.2578125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="12.2578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="13.83203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="13.83203125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.83203125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.9765625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="10.9765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.6796875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.6796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.6796875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.6796875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="15.25390625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="15.25390625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="15.25390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.39453125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="12.39453125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="14.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -179,75 +161,21 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
   </sheetData>
+  <sheetProtection password="C8F3" sheet="true" scenarios="true" objects="true"/>
   <dataValidations count="1">
     <dataValidation type="decimal" operator="between" sqref="B2:M201" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Lỗi khi nhập điểm!" error="Ô nhập điểm chỉ được phép nhập từ 0 đến 10">
       <formula1>0</formula1>

--- a/SampleExcel.xlsx
+++ b/SampleExcel.xlsx
@@ -12,51 +12,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Họ và tên</t>
   </si>
   <si>
-    <t>Miệng - 11</t>
-  </si>
-  <si>
-    <t>Miệng - 12</t>
-  </si>
-  <si>
-    <t>Miệng - 13</t>
-  </si>
-  <si>
-    <t>Miệng - 14</t>
-  </si>
-  <si>
-    <t>15 phút - 15</t>
-  </si>
-  <si>
-    <t>15 phút - 16</t>
-  </si>
-  <si>
-    <t>15 phút - 17</t>
-  </si>
-  <si>
-    <t>1 tiết - 18</t>
-  </si>
-  <si>
-    <t>1 tiết - 19</t>
-  </si>
-  <si>
-    <t>Học kỳ - 20</t>
+    <t>Miệng - 1</t>
+  </si>
+  <si>
+    <t>Miệng - 2</t>
+  </si>
+  <si>
+    <t>Miệng - 3</t>
+  </si>
+  <si>
+    <t>Miệng - 4</t>
+  </si>
+  <si>
+    <t>15 phút - 5</t>
+  </si>
+  <si>
+    <t>15 phút - 6</t>
+  </si>
+  <si>
+    <t>15 phút - 7</t>
+  </si>
+  <si>
+    <t>1 tiết - 8</t>
+  </si>
+  <si>
+    <t>1 tiết - 9</t>
+  </si>
+  <si>
+    <t>Học kỳ - 10</t>
   </si>
   <si>
     <t>Huy - 1</t>
+  </si>
+  <si>
+    <t>Nhật - 3</t>
+  </si>
+  <si>
+    <t>Chinh - 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd-MM-yyyy"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11.0"/>
@@ -92,10 +96,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <protection locked="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <protection locked="false"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <protection locked="false"/>
     </xf>
@@ -105,22 +114,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="12.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.6796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.6796875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.6796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.6796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="15.25390625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="15.25390625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="15.25390625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.39453125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="12.39453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.2578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.2578125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.2578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.2578125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.83203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="13.83203125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.83203125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.9765625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="10.9765625" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="14.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -163,19 +172,108 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="B2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection password="C8F3" sheet="true" scenarios="true" objects="true"/>
   <dataValidations count="1">
     <dataValidation type="decimal" operator="between" sqref="B2:M201" allowBlank="true" errorStyle="stop" showErrorMessage="true" errorTitle="Lỗi khi nhập điểm!" error="Ô nhập điểm chỉ được phép nhập từ 0 đến 10">
       <formula1>0</formula1>
